--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26221"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="38400" windowHeight="24000" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="-465" windowWidth="38400" windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Author</t>
   </si>
   <si>
-    <t>The Application must allow a quick and mobile cost estimation of IT Projects</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -80,27 +77,9 @@
     <t>Z9</t>
   </si>
   <si>
-    <t>The Application architecture hast to be modular to add new cost estimation methods and analysis tools faster and more efficient.</t>
-  </si>
-  <si>
-    <t>The Application have to improve the cost estimation during  the Project course.</t>
-  </si>
-  <si>
     <t>With the application it is possible to get the information of completed projects and take advantage of their estimation.</t>
   </si>
   <si>
-    <t>The Application allows some comparison between projects and shows projects that are related to each other.</t>
-  </si>
-  <si>
-    <t>The Application gives information about the estimated mann days of a project and the estimated costs for each project component.</t>
-  </si>
-  <si>
-    <t>A Project analysis within the application allows an overview of the project changes during the process and gives detailed information about the estimation.</t>
-  </si>
-  <si>
-    <t>Till the End of the bachelor thesis the function point method has to be implemented</t>
-  </si>
-  <si>
     <t>Titel</t>
   </si>
   <si>
@@ -420,6 +399,30 @@
   </si>
   <si>
     <t>After Changing the estimation method the project will be automatically transformt into the new estimation method</t>
+  </si>
+  <si>
+    <t>The application must allow a quick and mobile cost estimation of IT Projects</t>
+  </si>
+  <si>
+    <t>The application have to improve the cost estimation during  the project lifecycle.</t>
+  </si>
+  <si>
+    <t>The application architecture has to be modular to add new cost estimation methods and analysis tools faster and more efficient.</t>
+  </si>
+  <si>
+    <t>The application allows comparison between projects and shows projects that are related to each other.</t>
+  </si>
+  <si>
+    <t>The application gives information about the estimated man days of a project and the estimated costs.</t>
+  </si>
+  <si>
+    <t>A project analysis within the application allows an overview of the project changes during the process and gives detailed information about the estimation.</t>
+  </si>
+  <si>
+    <t>Till the end of the bachelor thesis the function point method has to be implemented and be fully operational.</t>
+  </si>
+  <si>
+    <t>The application must provide informations how cost estimations work.</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1506,19 +1509,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="117.5" customWidth="1"/>
+    <col min="2" max="2" width="117.42578125" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,101 +1538,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="16" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
@@ -1652,33 +1657,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
@@ -1687,964 +1692,964 @@
         <v>5</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -2652,15 +2657,15 @@
       <c r="G45" s="6"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -2668,15 +2673,15 @@
       <c r="G46" s="6"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -2684,15 +2689,15 @@
       <c r="G47" s="6"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -2700,15 +2705,15 @@
       <c r="G48" s="6"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -2716,15 +2721,15 @@
       <c r="G49" s="6"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2732,15 +2737,15 @@
       <c r="G50" s="6"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -2748,7 +2753,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>50</v>
       </c>
@@ -2798,38 +2803,38 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-465" windowWidth="38400" windowHeight="24000"/>
+    <workbookView xWindow="1860" yWindow="-465" windowWidth="38400" windowHeight="24000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -224,78 +224,24 @@
     <t>Create Project</t>
   </si>
   <si>
-    <t>In the project Overview it is possible to create a new project</t>
-  </si>
-  <si>
     <t>Create Project: Project Name</t>
   </si>
   <si>
-    <t>To create a Project a new Name have to inserted</t>
-  </si>
-  <si>
-    <t>Create Project: intern ID</t>
-  </si>
-  <si>
-    <t>All Project got an intern ID.</t>
-  </si>
-  <si>
     <t>Create Project: Set Estimation Method</t>
   </si>
   <si>
     <t>To create a Project an available estimation method must be set</t>
   </si>
   <si>
-    <t>Create Project: Load Project Einflussfaktoren</t>
-  </si>
-  <si>
-    <t>All Einflussfaktoren need to be set to complete the creation process</t>
-  </si>
-  <si>
     <t>Create Project: Project Phase</t>
   </si>
   <si>
     <t>For the creation Process the actual Project Phase must be set</t>
   </si>
   <si>
-    <t>Create Project:  Existing Project Documents</t>
-  </si>
-  <si>
     <t>There has to be the possibility to add existing project documents</t>
   </si>
   <si>
-    <t>Each Project Document can only be added once to the project</t>
-  </si>
-  <si>
-    <t>Create Project: Existing Project Documents - Delete</t>
-  </si>
-  <si>
-    <t>Added Project Documents can be delete from the project</t>
-  </si>
-  <si>
-    <t>Create Project: Project Tags</t>
-  </si>
-  <si>
-    <t>There must be the possibility to add Tags to the project</t>
-  </si>
-  <si>
-    <t>Create Project: Project Tags - Delete</t>
-  </si>
-  <si>
-    <t>Added Tags can be deletet from the project</t>
-  </si>
-  <si>
-    <t>Previous Chosen tags must be displayed and be choosable for new tag input</t>
-  </si>
-  <si>
-    <t>The Previous chosen tags must be sorted after their using</t>
-  </si>
-  <si>
-    <t>Create Project: Note</t>
-  </si>
-  <si>
-    <t>It should be possible to add a project note</t>
-  </si>
-  <si>
     <t>Create Project: Suggest Estimation Method</t>
   </si>
   <si>
@@ -317,33 +263,12 @@
     <t>In the projects overview the user has the possibility to sort the projects properties</t>
   </si>
   <si>
-    <t>Create Project: Unique Name</t>
-  </si>
-  <si>
-    <t>The Project Name must be unique</t>
-  </si>
-  <si>
     <t>After an Estimation Method is set the influencing factors are loaded</t>
   </si>
   <si>
     <t>Create Project: Set Influencing Factors</t>
   </si>
   <si>
-    <t>Create Project:  Existing Project Documents - Selection</t>
-  </si>
-  <si>
-    <t>There should be an selection dialogue for the project documents</t>
-  </si>
-  <si>
-    <t>Create Project: Existing Project Documents - Count</t>
-  </si>
-  <si>
-    <t>Create Project: Project Tags - Selection</t>
-  </si>
-  <si>
-    <t>Create Project: Project Tags - Sort Selection</t>
-  </si>
-  <si>
     <t>Affinity Matrix</t>
   </si>
   <si>
@@ -423,6 +348,279 @@
   </si>
   <si>
     <t>The application must provide informations how cost estimations work.</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>R011</t>
+  </si>
+  <si>
+    <t>R012</t>
+  </si>
+  <si>
+    <t>R013</t>
+  </si>
+  <si>
+    <t>R014</t>
+  </si>
+  <si>
+    <t>R015</t>
+  </si>
+  <si>
+    <t>R016</t>
+  </si>
+  <si>
+    <t>R017</t>
+  </si>
+  <si>
+    <t>R018</t>
+  </si>
+  <si>
+    <t>R019</t>
+  </si>
+  <si>
+    <t>R020</t>
+  </si>
+  <si>
+    <t>R021</t>
+  </si>
+  <si>
+    <t>R022</t>
+  </si>
+  <si>
+    <t>R023</t>
+  </si>
+  <si>
+    <t>R024</t>
+  </si>
+  <si>
+    <t>R025</t>
+  </si>
+  <si>
+    <t>R026</t>
+  </si>
+  <si>
+    <t>R027</t>
+  </si>
+  <si>
+    <t>R028</t>
+  </si>
+  <si>
+    <t>R029</t>
+  </si>
+  <si>
+    <t>R030</t>
+  </si>
+  <si>
+    <t>R031</t>
+  </si>
+  <si>
+    <t>R032</t>
+  </si>
+  <si>
+    <t>R033</t>
+  </si>
+  <si>
+    <t>R034</t>
+  </si>
+  <si>
+    <t>R035</t>
+  </si>
+  <si>
+    <t>R036</t>
+  </si>
+  <si>
+    <t>R037</t>
+  </si>
+  <si>
+    <t>R038</t>
+  </si>
+  <si>
+    <t>R039</t>
+  </si>
+  <si>
+    <t>R040</t>
+  </si>
+  <si>
+    <t>R041</t>
+  </si>
+  <si>
+    <t>R042</t>
+  </si>
+  <si>
+    <t>R043</t>
+  </si>
+  <si>
+    <t>R044</t>
+  </si>
+  <si>
+    <t>R045</t>
+  </si>
+  <si>
+    <t>R046</t>
+  </si>
+  <si>
+    <t>R047</t>
+  </si>
+  <si>
+    <t>R048</t>
+  </si>
+  <si>
+    <t>R049</t>
+  </si>
+  <si>
+    <t>R050</t>
+  </si>
+  <si>
+    <t>R051</t>
+  </si>
+  <si>
+    <t>Create Project: unique ID</t>
+  </si>
+  <si>
+    <t>Create Project: Load Project Influence Factors</t>
+  </si>
+  <si>
+    <t>R052</t>
+  </si>
+  <si>
+    <t>R053</t>
+  </si>
+  <si>
+    <t>R054</t>
+  </si>
+  <si>
+    <t>R055</t>
+  </si>
+  <si>
+    <t>R056</t>
+  </si>
+  <si>
+    <t>Create Project: Architecture</t>
+  </si>
+  <si>
+    <t>Create Project: Development Market</t>
+  </si>
+  <si>
+    <t>Create Project: Development Kind</t>
+  </si>
+  <si>
+    <t>Create Project: Process Methology</t>
+  </si>
+  <si>
+    <t>Create Project: Programming Language</t>
+  </si>
+  <si>
+    <t>Create Project: Platform</t>
+  </si>
+  <si>
+    <t>Create Project: Industry Sector</t>
+  </si>
+  <si>
+    <t>Create Project: Project Icon</t>
+  </si>
+  <si>
+    <t>Create Project: Guided Creation Process</t>
+  </si>
+  <si>
+    <t>Create Project: List Creation</t>
+  </si>
+  <si>
+    <t>To create a Project a new Name must set</t>
+  </si>
+  <si>
+    <t>Create Project: Long Project Name</t>
+  </si>
+  <si>
+    <t>Create Project: Preselected Properties</t>
+  </si>
+  <si>
+    <t>One value must be preselected for all properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development market of the Project is selectable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development kind of the Project is selectable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The programming language of the Project is selectable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The platform of the Project is selectable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The industry sector of the Project is selectable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The architecture of the Project is selectable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project icon of the Project is selectable </t>
+  </si>
+  <si>
+    <t>It is possible to start a guided creation for the project which guides the user through each step</t>
+  </si>
+  <si>
+    <t>It is possible to create a new project in the application</t>
+  </si>
+  <si>
+    <t>It is possible to create a new project with a list creation which inherits all properties for the creation</t>
+  </si>
+  <si>
+    <t>Create Project: Project Properties</t>
+  </si>
+  <si>
+    <t>Create Project: Property Sorting</t>
+  </si>
+  <si>
+    <t>All Properties are sorted alphabetically descending for the selection</t>
+  </si>
+  <si>
+    <t>All Projects have an unique ID.</t>
+  </si>
+  <si>
+    <t>All Influence Factors need to be set to complete the creation process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process methology of the Project is selectable </t>
+  </si>
+  <si>
+    <t>Project names have to be limited to 40 characters</t>
+  </si>
+  <si>
+    <t>Create Project: description</t>
+  </si>
+  <si>
+    <t>It should be possible to add a project description</t>
   </si>
 </sst>
 </file>
@@ -1184,8 +1382,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:H52" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:H52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:H57" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:H57"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="18"/>
     <tableColumn id="2" name="Titel" dataDxfId="17"/>
@@ -1263,7 +1461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1298,7 +1496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1509,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1543,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1556,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1567,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1589,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1600,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1611,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1622,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1633,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1655,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,8 +1894,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>21</v>
@@ -1718,8 +1916,8 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>24</v>
@@ -1740,8 +1938,8 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>3</v>
+      <c r="A4" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>27</v>
@@ -1762,8 +1960,8 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>4</v>
+      <c r="A5" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>29</v>
@@ -1784,14 +1982,14 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>5</v>
+      <c r="A6" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
@@ -1806,14 +2004,14 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>6</v>
+      <c r="A7" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
@@ -1828,8 +2026,8 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>7</v>
+      <c r="A8" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>33</v>
@@ -1850,8 +2048,8 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>8</v>
+      <c r="A9" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
@@ -1872,8 +2070,8 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>9</v>
+      <c r="A10" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>40</v>
@@ -1894,8 +2092,8 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>10</v>
+      <c r="A11" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>42</v>
@@ -1916,8 +2114,8 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>11</v>
+      <c r="A12" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>44</v>
@@ -1938,8 +2136,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>12</v>
+      <c r="A13" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>46</v>
@@ -1960,8 +2158,8 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>13</v>
+      <c r="A14" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>48</v>
@@ -1982,8 +2180,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>14</v>
+      <c r="A15" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>50</v>
@@ -2004,8 +2202,8 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>15</v>
+      <c r="A16" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>52</v>
@@ -2026,8 +2224,8 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>16</v>
+      <c r="A17" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>54</v>
@@ -2048,8 +2246,8 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>17</v>
+      <c r="A18" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>56</v>
@@ -2070,8 +2268,8 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>18</v>
+      <c r="A19" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>58</v>
@@ -2092,8 +2290,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>19</v>
+      <c r="A20" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>60</v>
@@ -2114,8 +2312,8 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>20</v>
+      <c r="A21" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>62</v>
@@ -2136,8 +2334,8 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>21</v>
+      <c r="A22" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>64</v>
@@ -2158,14 +2356,14 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>22</v>
+      <c r="A23" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
@@ -2180,14 +2378,14 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>23</v>
+      <c r="A24" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12" t="s">
@@ -2202,18 +2400,18 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>24</v>
+      <c r="A25" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>7</v>
@@ -2224,14 +2422,14 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>25</v>
+      <c r="A26" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="s">
@@ -2246,14 +2444,14 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>26</v>
+      <c r="A27" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
@@ -2268,14 +2466,14 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>27</v>
+      <c r="A28" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12" t="s">
@@ -2290,14 +2488,14 @@
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>28</v>
+      <c r="A29" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
@@ -2312,14 +2510,14 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>29</v>
+      <c r="A30" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12" t="s">
@@ -2334,21 +2532,21 @@
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>30</v>
+      <c r="A31" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>9</v>
@@ -2356,21 +2554,21 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>31</v>
+      <c r="A32" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>9</v>
@@ -2378,14 +2576,14 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>32</v>
+      <c r="A33" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12" t="s">
@@ -2400,14 +2598,14 @@
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>33</v>
+      <c r="A34" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12" t="s">
@@ -2422,14 +2620,14 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>83</v>
+      <c r="A35" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12" t="s">
@@ -2441,17 +2639,17 @@
       <c r="G35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>34</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>85</v>
+      <c r="A36" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="s">
@@ -2463,17 +2661,17 @@
       <c r="G36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>35</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>105</v>
+      <c r="A37" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
@@ -2485,17 +2683,17 @@
       <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>36</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>106</v>
+      <c r="A38" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
@@ -2507,39 +2705,39 @@
       <c r="G38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>37</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>90</v>
+      <c r="A39" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>38</v>
+      <c r="A40" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12" t="s">
@@ -2554,14 +2752,14 @@
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>39</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>94</v>
+      <c r="A41" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12" t="s">
@@ -2573,17 +2771,17 @@
       <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>40</v>
+      <c r="A42" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="s">
@@ -2598,21 +2796,21 @@
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>41</v>
+      <c r="A43" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>9</v>
@@ -2620,116 +2818,140 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>42</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>110</v>
+      <c r="A44" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="12"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>43</v>
+      <c r="A45" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
+      <c r="E45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>44</v>
+      <c r="A46" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="6"/>
+      <c r="E46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>45</v>
+      <c r="A47" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="6"/>
+      <c r="E47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>46</v>
+      <c r="A48" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="6"/>
+      <c r="E48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <v>47</v>
+      <c r="A49" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="6"/>
+      <c r="E49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <v>48</v>
+      <c r="A50" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2738,14 +2960,14 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <v>49</v>
+      <c r="A51" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -2754,16 +2976,96 @@
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <v>50</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="6"/>
       <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2778,13 +3080,13 @@
           <x14:formula1>
             <xm:f>'Master Data'!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F52</xm:sqref>
+          <xm:sqref>F2:F57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Master Data'!$D$4:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E52</xm:sqref>
+          <xm:sqref>E2:E57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
